--- a/Clubs_goals_conceded_url.xlsx
+++ b/Clubs_goals_conceded_url.xlsx
@@ -460,7 +460,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,552  </t>
+          <t xml:space="preserve">1,553  </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,7 +482,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,510  </t>
+          <t xml:space="preserve">1,514  </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,501  </t>
+          <t xml:space="preserve">1,504  </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,413  </t>
+          <t xml:space="preserve">1,415  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,205  </t>
+          <t xml:space="preserve">1,206  </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,199  </t>
+          <t xml:space="preserve">1,200  </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,183  </t>
+          <t xml:space="preserve">1,184  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,108  </t>
+          <t xml:space="preserve">1,109  </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">902  </t>
+          <t xml:space="preserve">903  </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">537  </t>
+          <t xml:space="preserve">539  </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://resources.premierleague.com/premierleague/badges/t111.png</t>
+          <t>https://resources.premierleague.com/premierleague/badges/t90.png</t>
         </is>
       </c>
     </row>
@@ -1027,17 +1027,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">480  </t>
+          <t xml:space="preserve">482  </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://resources.premierleague.com/premierleague/badges/t90.png</t>
+          <t>https://resources.premierleague.com/premierleague/badges/t111.png</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">422  </t>
+          <t xml:space="preserve">428  </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">330  </t>
+          <t xml:space="preserve">331  </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">299  </t>
+          <t xml:space="preserve">300  </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">114  </t>
+          <t xml:space="preserve">116  </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">20  </t>
+          <t xml:space="preserve">21  </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
